--- a/example/001/excel/配置范例表格.xlsx
+++ b/example/001/excel/配置范例表格.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="216">
   <si>
     <t>名称</t>
   </si>
@@ -692,10 +692,6 @@
   <si>
     <t>在数据里面建立的table id，对应相应的表名
 所有配置的表名称，配置，字段，都是一致的，只有table ID不一样，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读取的Excel sheet名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -808,18 +804,60 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>读取的SHEET名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在数据里面建立的table id，对应相应的表名
+所有配置的表名称，配置，字段，都是一致的，只有table ID不一样，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放protobuf配置数据的的文件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置文件对应的结构名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIST_OF_GAME_CFG_STRUCT_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就是EXCEL的SHEEL名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game_config.db3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game_cfg_struct_1.pbc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game_cfg_struct_2.pbc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果不需要转换SQLite3文件，填写为空
+（包括下面段落的字段）
+可以吧多个表配置写入一个文件，文件内部用table id区分数据表。当然一个表一个配置文件也可以。但太多配置文件不利于管理，所以建议合理安排。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>如果不需要转换Protobuf 配置文件，填写为空
+（包括下面段落的字段）
 配置文件里面就保存对应的repeat 字段的message数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>如果不需要转换SQLite3文件，填写为空（包括下面段落的字段）
-可以吧多个表配置写入一个文件，文件内部用table id区分数据表。当然一个表一个配置文件也可以。但太多配置文件不利于管理，所以建议合理安排。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果不需要转换Protobuf 配置文件，填写为空（包括下面段落的字段）
-配置文件里面就保存对应的repeat 字段的message数据</t>
+    <t>LIST_OF_GAME_CFG_STRUCT_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就是一个Protobuf meta文件里面定义的message名称，里面有一个repeat 对应的行的结构，字段名称必须是list_data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1033,7 +1071,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1124,6 +1162,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1142,6 +1186,30 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1151,14 +1219,20 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1168,39 +1242,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1295,6 +1336,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1330,6 +1388,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2024,59 +2099,59 @@
         <v>102</v>
       </c>
       <c r="C3" s="12"/>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33" t="s">
+      <c r="E3" s="34"/>
+      <c r="F3" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="33" t="s">
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="30" t="s">
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="33" t="s">
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="33" t="s">
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="30" t="s">
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="33" t="s">
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="35"/>
-      <c r="AI3" s="30" t="s">
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="AJ3" s="31"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="32"/>
+      <c r="AJ3" s="33"/>
+      <c r="AK3" s="33"/>
+      <c r="AL3" s="34"/>
       <c r="AM3" s="28"/>
       <c r="AN3" s="28"/>
     </row>
@@ -3077,7 +3152,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:E7"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -3090,180 +3165,180 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
     </row>
     <row r="2" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="52" t="s">
-        <v>192</v>
-      </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
+      <c r="B2" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="52" t="s">
-        <v>193</v>
-      </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
+      <c r="B3" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="52" t="s">
-        <v>194</v>
-      </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
     </row>
     <row r="5" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+      <c r="B5" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
     </row>
     <row r="6" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="52" t="s">
-        <v>197</v>
-      </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
+      <c r="B6" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
     </row>
     <row r="7" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
+      <c r="B7" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
     </row>
     <row r="8" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="17">
         <v>7</v>
       </c>
-      <c r="B8" s="52" t="s">
-        <v>198</v>
-      </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
+      <c r="B8" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
     </row>
     <row r="9" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="17">
         <v>8</v>
       </c>
-      <c r="B9" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="41"/>
+      <c r="B9" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
     </row>
     <row r="10" spans="1:5" ht="119.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="17">
         <v>9</v>
       </c>
-      <c r="B10" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="41"/>
+      <c r="B10" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
     </row>
     <row r="11" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="17">
         <v>10</v>
       </c>
-      <c r="B11" s="52" t="s">
-        <v>202</v>
-      </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
+      <c r="B11" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
     </row>
     <row r="12" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="17">
         <v>11</v>
       </c>
-      <c r="B12" s="50" t="s">
-        <v>201</v>
-      </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="51"/>
+      <c r="B12" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45"/>
     </row>
     <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="17">
         <v>12</v>
       </c>
-      <c r="B13" s="52" t="s">
-        <v>203</v>
-      </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
+      <c r="B13" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="17">
         <v>13</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="51"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="45"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B15" s="55"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B16" s="55"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="49" t="s">
         <v>180</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="45" t="s">
-        <v>181</v>
-      </c>
-      <c r="B19" s="46"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="18" t="s">
         <v>77</v>
       </c>
@@ -3272,20 +3347,22 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="50" t="s">
-        <v>177</v>
-      </c>
-      <c r="B20" s="51"/>
+      <c r="A20" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="B20" s="45"/>
       <c r="C20" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="19"/>
+      <c r="D20" s="19" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="33" x14ac:dyDescent="0.15">
-      <c r="A21" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="B21" s="51"/>
+      <c r="A21" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="B21" s="45"/>
       <c r="C21" s="19">
         <v>3</v>
       </c>
@@ -3294,63 +3371,67 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="50" t="s">
-        <v>189</v>
-      </c>
-      <c r="B22" s="51"/>
+      <c r="A22" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="B22" s="45"/>
       <c r="C22" s="19" t="s">
         <v>81</v>
       </c>
       <c r="D22" s="19"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="50" t="s">
-        <v>179</v>
-      </c>
-      <c r="B23" s="51"/>
+      <c r="A23" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="B23" s="45"/>
       <c r="C23" s="19">
         <v>2</v>
       </c>
       <c r="D23" s="19"/>
     </row>
     <row r="24" spans="1:4" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="B24" s="19" t="s">
+      <c r="A24" s="51" t="s">
+        <v>185</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+      <c r="A25" s="52"/>
+      <c r="B25" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="33" x14ac:dyDescent="0.15">
-      <c r="A25" s="49"/>
-      <c r="B25" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="66" x14ac:dyDescent="0.15">
-      <c r="A26" s="47" t="s">
-        <v>185</v>
-      </c>
       <c r="B26" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>79</v>
+        <v>209</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="48"/>
+      <c r="A27" s="53"/>
       <c r="B27" s="19" t="s">
         <v>175</v>
       </c>
@@ -3358,11 +3439,11 @@
         <v>1</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="33" x14ac:dyDescent="0.15">
-      <c r="A28" s="48"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="19" t="s">
         <v>75</v>
       </c>
@@ -3370,11 +3451,11 @@
         <v>1</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="33" x14ac:dyDescent="0.15">
-      <c r="A29" s="49"/>
+      <c r="A29" s="52"/>
       <c r="B29" s="19" t="s">
         <v>76</v>
       </c>
@@ -3382,22 +3463,22 @@
         <v>0</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="48"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="49" t="s">
         <v>180</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="38"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="45" t="s">
-        <v>181</v>
-      </c>
-      <c r="B35" s="46"/>
+      <c r="B35" s="50"/>
       <c r="C35" s="18" t="s">
         <v>77</v>
       </c>
@@ -3406,20 +3487,20 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="50" t="s">
-        <v>177</v>
-      </c>
-      <c r="B36" s="51"/>
+      <c r="A36" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="B36" s="45"/>
       <c r="C36" s="19" t="s">
         <v>126</v>
       </c>
       <c r="D36" s="19"/>
     </row>
     <row r="37" spans="1:4" ht="33" x14ac:dyDescent="0.15">
-      <c r="A37" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="B37" s="51"/>
+      <c r="A37" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="B37" s="45"/>
       <c r="C37" s="19">
         <v>5</v>
       </c>
@@ -3428,63 +3509,67 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="50" t="s">
-        <v>189</v>
-      </c>
-      <c r="B38" s="51"/>
+      <c r="A38" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="B38" s="45"/>
       <c r="C38" s="19" t="s">
         <v>123</v>
       </c>
       <c r="D38" s="19"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="50" t="s">
-        <v>179</v>
-      </c>
-      <c r="B39" s="51"/>
+      <c r="A39" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="B39" s="45"/>
       <c r="C39" s="19">
         <v>4</v>
       </c>
       <c r="D39" s="19"/>
     </row>
-    <row r="40" spans="1:4" ht="33" x14ac:dyDescent="0.15">
-      <c r="A40" s="47" t="s">
-        <v>186</v>
+    <row r="40" spans="1:4" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="51" t="s">
+        <v>185</v>
       </c>
       <c r="B40" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+      <c r="A41" s="52"/>
+      <c r="B41" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="66" x14ac:dyDescent="0.15">
+      <c r="A42" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="33" x14ac:dyDescent="0.15">
-      <c r="A41" s="49"/>
-      <c r="B41" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="66" x14ac:dyDescent="0.15">
-      <c r="A42" s="47" t="s">
-        <v>185</v>
-      </c>
       <c r="B42" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C42" s="19" t="s">
         <v>79</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="48"/>
+      <c r="A43" s="53"/>
       <c r="B43" s="19" t="s">
         <v>175</v>
       </c>
@@ -3496,7 +3581,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="33" x14ac:dyDescent="0.15">
-      <c r="A44" s="48"/>
+      <c r="A44" s="53"/>
       <c r="B44" s="19" t="s">
         <v>75</v>
       </c>
@@ -3504,11 +3589,11 @@
         <v>1</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="33" x14ac:dyDescent="0.15">
-      <c r="A45" s="49"/>
+      <c r="A45" s="52"/>
       <c r="B45" s="19" t="s">
         <v>76</v>
       </c>
@@ -3516,7 +3601,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -3526,11 +3611,19 @@
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="B14:E14"/>
+    <mergeCell ref="A24:A25"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A20:B20"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
@@ -3542,15 +3635,7 @@
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B6:E6"/>
-    <mergeCell ref="A24:A25"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3585,11 +3670,11 @@
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="44"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -3681,15 +3766,15 @@
       <c r="D12" s="7"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="44"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="56"/>
     </row>
     <row r="16" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">

--- a/example/001/excel/配置范例表格.xlsx
+++ b/example/001/excel/配置范例表格.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="218">
   <si>
     <t>名称</t>
   </si>
@@ -501,10 +501,6 @@
   </si>
   <si>
     <t>s2_d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s2_e</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -858,6 +854,18 @@
   </si>
   <si>
     <t>就是一个Protobuf meta文件里面定义的message名称，里面有一个repeat 对应的行的结构，字段名称必须是list_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2_e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2_f</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1186,10 +1194,40 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1201,37 +1239,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2002,7 +2010,7 @@
   <dimension ref="A1:AN11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2096,58 +2104,58 @@
         <v>101</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>102</v>
+        <v>215</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E3" s="34"/>
       <c r="F3" s="35" t="s">
-        <v>129</v>
+        <v>216</v>
       </c>
       <c r="G3" s="36"/>
       <c r="H3" s="36"/>
       <c r="I3" s="37"/>
       <c r="J3" s="35" t="s">
-        <v>133</v>
+        <v>217</v>
       </c>
       <c r="K3" s="36"/>
       <c r="L3" s="36"/>
       <c r="M3" s="37"/>
       <c r="N3" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O3" s="33"/>
       <c r="P3" s="33"/>
       <c r="Q3" s="34"/>
       <c r="R3" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S3" s="36"/>
       <c r="T3" s="36"/>
       <c r="U3" s="36"/>
       <c r="V3" s="37"/>
       <c r="W3" s="35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="X3" s="36"/>
       <c r="Y3" s="36"/>
       <c r="Z3" s="37"/>
       <c r="AA3" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AB3" s="33"/>
       <c r="AC3" s="33"/>
       <c r="AD3" s="34"/>
       <c r="AE3" s="35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF3" s="36"/>
       <c r="AG3" s="36"/>
       <c r="AH3" s="37"/>
       <c r="AI3" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AJ3" s="33"/>
       <c r="AK3" s="33"/>
@@ -2166,115 +2174,115 @@
         <v>127</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>128</v>
       </c>
       <c r="F4" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>132</v>
-      </c>
       <c r="I4" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K4" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="L4" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="M4" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="N4" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="O4" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="P4" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q4" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="S4" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="T4" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="U4" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="V4" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="W4" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="X4" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="N4" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="O4" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="P4" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q4" s="27" t="s">
+      <c r="Y4" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z4" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA4" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB4" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="R4" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="S4" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="T4" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="U4" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="V4" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="W4" s="27" t="s">
+      <c r="AC4" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="X4" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y4" s="27" t="s">
+      <c r="AD4" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="Z4" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA4" s="27" t="s">
+      <c r="AE4" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF4" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG4" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AB4" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="AC4" s="27" t="s">
+      <c r="AH4" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="AD4" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE4" s="27" t="s">
+      <c r="AI4" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ4" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="AK4" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AF4" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG4" s="27" t="s">
+      <c r="AL4" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="AH4" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI4" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="AJ4" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="AK4" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="AL4" s="27" t="s">
-        <v>145</v>
-      </c>
       <c r="AM4" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="AN4" s="27" t="s">
         <v>161</v>
-      </c>
-      <c r="AN4" s="27" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="34.5" x14ac:dyDescent="0.15">
@@ -2351,10 +2359,10 @@
         <v>69853</v>
       </c>
       <c r="Y5" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Z5" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AA5" s="26">
         <v>2</v>
@@ -2363,10 +2371,10 @@
         <v>7</v>
       </c>
       <c r="AC5" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AD5" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AE5" s="26">
         <v>3</v>
@@ -2375,10 +2383,10 @@
         <v>69853</v>
       </c>
       <c r="AG5" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AH5" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AI5" s="26">
         <v>4</v>
@@ -2387,16 +2395,16 @@
         <v>7</v>
       </c>
       <c r="AK5" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AL5" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AM5" s="26" t="s">
         <v>94</v>
       </c>
       <c r="AN5" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="258.75" x14ac:dyDescent="0.15">
@@ -2423,7 +2431,7 @@
         <v>108</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J6" s="9">
         <v>12125</v>
@@ -2462,7 +2470,7 @@
         <v>8</v>
       </c>
       <c r="V6" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="W6" s="26">
         <v>1</v>
@@ -2471,10 +2479,10 @@
         <v>7</v>
       </c>
       <c r="Y6" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Z6" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AA6" s="26">
         <v>2</v>
@@ -2483,10 +2491,10 @@
         <v>7</v>
       </c>
       <c r="AC6" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AD6" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE6" s="26">
         <v>3</v>
@@ -2495,10 +2503,10 @@
         <v>7</v>
       </c>
       <c r="AG6" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AH6" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AI6" s="26">
         <v>4</v>
@@ -2507,16 +2515,16 @@
         <v>7</v>
       </c>
       <c r="AK6" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AL6" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AM6" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AN6" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:40" ht="51.75" x14ac:dyDescent="0.15">
@@ -2593,10 +2601,10 @@
         <v>90365</v>
       </c>
       <c r="Y7" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Z7" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AA7" s="26">
         <v>2</v>
@@ -2605,10 +2613,10 @@
         <v>4</v>
       </c>
       <c r="AC7" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AD7" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AE7" s="26">
         <v>3</v>
@@ -2617,10 +2625,10 @@
         <v>90365</v>
       </c>
       <c r="AG7" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AH7" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AI7" s="26">
         <v>4</v>
@@ -2629,16 +2637,16 @@
         <v>4</v>
       </c>
       <c r="AK7" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AL7" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AM7" s="26" t="s">
         <v>94</v>
       </c>
       <c r="AN7" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:40" ht="51.75" x14ac:dyDescent="0.15">
@@ -2715,10 +2723,10 @@
         <v>79</v>
       </c>
       <c r="Y8" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z8" s="26" t="s">
         <v>151</v>
-      </c>
-      <c r="Z8" s="26" t="s">
-        <v>152</v>
       </c>
       <c r="AA8" s="26">
         <v>2</v>
@@ -2727,10 +2735,10 @@
         <v>5632</v>
       </c>
       <c r="AC8" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD8" s="26" t="s">
         <v>151</v>
-      </c>
-      <c r="AD8" s="26" t="s">
-        <v>152</v>
       </c>
       <c r="AE8" s="26">
         <v>3</v>
@@ -2739,10 +2747,10 @@
         <v>79</v>
       </c>
       <c r="AG8" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH8" s="26" t="s">
         <v>151</v>
-      </c>
-      <c r="AH8" s="26" t="s">
-        <v>152</v>
       </c>
       <c r="AI8" s="26">
         <v>4</v>
@@ -2751,16 +2759,16 @@
         <v>5632</v>
       </c>
       <c r="AK8" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL8" s="26" t="s">
         <v>151</v>
-      </c>
-      <c r="AL8" s="26" t="s">
-        <v>152</v>
       </c>
       <c r="AM8" s="26" t="s">
         <v>94</v>
       </c>
       <c r="AN8" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="34.5" x14ac:dyDescent="0.15">
@@ -2837,10 +2845,10 @@
         <v>4</v>
       </c>
       <c r="Y9" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z9" s="26" t="s">
         <v>153</v>
-      </c>
-      <c r="Z9" s="26" t="s">
-        <v>154</v>
       </c>
       <c r="AA9" s="26">
         <v>2</v>
@@ -2849,10 +2857,10 @@
         <v>4</v>
       </c>
       <c r="AC9" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD9" s="26" t="s">
         <v>153</v>
-      </c>
-      <c r="AD9" s="26" t="s">
-        <v>154</v>
       </c>
       <c r="AE9" s="26">
         <v>3</v>
@@ -2861,10 +2869,10 @@
         <v>4</v>
       </c>
       <c r="AG9" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="AH9" s="26" t="s">
         <v>153</v>
-      </c>
-      <c r="AH9" s="26" t="s">
-        <v>154</v>
       </c>
       <c r="AI9" s="26">
         <v>4</v>
@@ -2873,16 +2881,16 @@
         <v>4</v>
       </c>
       <c r="AK9" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="AL9" s="26" t="s">
         <v>153</v>
-      </c>
-      <c r="AL9" s="26" t="s">
-        <v>154</v>
       </c>
       <c r="AM9" s="26" t="s">
         <v>96</v>
       </c>
       <c r="AN9" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:40" ht="51.75" x14ac:dyDescent="0.15">
@@ -2959,10 +2967,10 @@
         <v>13</v>
       </c>
       <c r="Y10" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z10" s="26" t="s">
         <v>155</v>
-      </c>
-      <c r="Z10" s="26" t="s">
-        <v>156</v>
       </c>
       <c r="AA10" s="26">
         <v>2</v>
@@ -2971,10 +2979,10 @@
         <v>2773</v>
       </c>
       <c r="AC10" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD10" s="26" t="s">
         <v>155</v>
-      </c>
-      <c r="AD10" s="26" t="s">
-        <v>156</v>
       </c>
       <c r="AE10" s="26">
         <v>3</v>
@@ -2983,10 +2991,10 @@
         <v>13</v>
       </c>
       <c r="AG10" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH10" s="26" t="s">
         <v>155</v>
-      </c>
-      <c r="AH10" s="26" t="s">
-        <v>156</v>
       </c>
       <c r="AI10" s="26">
         <v>4</v>
@@ -2995,16 +3003,16 @@
         <v>2773</v>
       </c>
       <c r="AK10" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL10" s="26" t="s">
         <v>155</v>
-      </c>
-      <c r="AL10" s="26" t="s">
-        <v>156</v>
       </c>
       <c r="AM10" s="26" t="s">
         <v>95</v>
       </c>
       <c r="AN10" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:40" ht="86.25" x14ac:dyDescent="0.15">
@@ -3081,10 +3089,10 @@
         <v>12</v>
       </c>
       <c r="Y11" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Z11" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA11" s="26">
         <v>2</v>
@@ -3093,10 +3101,10 @@
         <v>23</v>
       </c>
       <c r="AC11" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AD11" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AE11" s="26">
         <v>3</v>
@@ -3105,10 +3113,10 @@
         <v>12</v>
       </c>
       <c r="AG11" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AH11" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AI11" s="26">
         <v>4</v>
@@ -3117,16 +3125,16 @@
         <v>23</v>
       </c>
       <c r="AK11" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AL11" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AM11" s="26" t="s">
         <v>95</v>
       </c>
       <c r="AN11" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3149,10 +3157,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -3165,154 +3173,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
     </row>
     <row r="2" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="B2" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="B3" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
     </row>
     <row r="4" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="B4" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="38" t="s">
-        <v>195</v>
-      </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="B5" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
     </row>
     <row r="6" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
     </row>
     <row r="7" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
+      <c r="B7" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
     </row>
     <row r="8" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="17">
         <v>7</v>
       </c>
-      <c r="B8" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
+      <c r="B8" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
     </row>
     <row r="9" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="17">
         <v>8</v>
       </c>
-      <c r="B9" s="40" t="s">
-        <v>198</v>
-      </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42"/>
+      <c r="B9" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="52"/>
     </row>
     <row r="10" spans="1:5" ht="119.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="17">
         <v>9</v>
       </c>
-      <c r="B10" s="40" t="s">
-        <v>199</v>
-      </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
+      <c r="B10" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="52"/>
     </row>
     <row r="11" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="17">
         <v>10</v>
       </c>
-      <c r="B11" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
+      <c r="B11" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
     </row>
     <row r="12" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="17">
         <v>11</v>
       </c>
-      <c r="B12" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="45"/>
+      <c r="B12" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="39"/>
     </row>
     <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="17">
         <v>12</v>
       </c>
-      <c r="B13" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
+      <c r="B13" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="17">
         <v>13</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="45"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="39"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B15" s="30"/>
@@ -3320,315 +3328,286 @@
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B16" s="30"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="47"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="49" t="s">
-        <v>180</v>
-      </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="43" t="s">
+      <c r="A19" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="B19" s="39"/>
+      <c r="C19" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+      <c r="A20" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="19">
+        <v>3</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="B21" s="39"/>
+      <c r="C21" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="19"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="B22" s="39"/>
+      <c r="C22" s="19">
+        <v>2</v>
+      </c>
+      <c r="D22" s="19"/>
+    </row>
+    <row r="23" spans="1:4" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+      <c r="A24" s="42"/>
+      <c r="B24" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="41"/>
+      <c r="B26" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C26" s="19">
+        <v>1</v>
+      </c>
+      <c r="D26" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="33" x14ac:dyDescent="0.15">
-      <c r="A21" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="19">
-        <v>3</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="19"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="19">
-        <v>2</v>
-      </c>
-      <c r="D23" s="19"/>
-    </row>
-    <row r="24" spans="1:4" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="51" t="s">
-        <v>185</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="33" x14ac:dyDescent="0.15">
-      <c r="A25" s="52"/>
-      <c r="B25" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="D25" s="31" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="82.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="51" t="s">
-        <v>184</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="53"/>
+    </row>
+    <row r="27" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+      <c r="A27" s="41"/>
       <c r="B27" s="19" t="s">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="C27" s="19">
         <v>1</v>
       </c>
       <c r="D27" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+      <c r="A28" s="42"/>
+      <c r="B28" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="19">
+        <v>0</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="47"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="B32" s="49"/>
+      <c r="C32" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="B33" s="39"/>
+      <c r="C33" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" s="19"/>
+    </row>
+    <row r="34" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+      <c r="A34" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="B34" s="39"/>
+      <c r="C34" s="19">
+        <v>5</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="B35" s="39"/>
+      <c r="C35" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" s="19"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="B36" s="39"/>
+      <c r="C36" s="19">
+        <v>4</v>
+      </c>
+      <c r="D36" s="19"/>
+    </row>
+    <row r="37" spans="1:4" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="B37" s="19" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="33" x14ac:dyDescent="0.15">
-      <c r="A28" s="53"/>
-      <c r="B28" s="19" t="s">
+      <c r="C37" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+      <c r="A38" s="42"/>
+      <c r="B38" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="66" x14ac:dyDescent="0.15">
+      <c r="A39" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="41"/>
+      <c r="B40" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C40" s="19">
+        <v>2</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+      <c r="A41" s="41"/>
+      <c r="B41" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C41" s="19">
         <v>1</v>
       </c>
-      <c r="D28" s="19" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="33" x14ac:dyDescent="0.15">
-      <c r="A29" s="52"/>
-      <c r="B29" s="19" t="s">
+      <c r="D41" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+      <c r="A42" s="42"/>
+      <c r="B42" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="19">
-        <v>0</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="48"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="49" t="s">
-        <v>180</v>
-      </c>
-      <c r="B35" s="50"/>
-      <c r="C35" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="B36" s="45"/>
-      <c r="C36" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="D36" s="19"/>
-    </row>
-    <row r="37" spans="1:4" ht="33" x14ac:dyDescent="0.15">
-      <c r="A37" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="B37" s="45"/>
-      <c r="C37" s="19">
-        <v>5</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="B38" s="45"/>
-      <c r="C38" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D38" s="19"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="B39" s="45"/>
-      <c r="C39" s="19">
-        <v>4</v>
-      </c>
-      <c r="D39" s="19"/>
-    </row>
-    <row r="40" spans="1:4" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="51" t="s">
+      <c r="C42" s="19">
+        <v>2</v>
+      </c>
+      <c r="D42" s="19" t="s">
         <v>185</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="33" x14ac:dyDescent="0.15">
-      <c r="A41" s="52"/>
-      <c r="B41" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="66" x14ac:dyDescent="0.15">
-      <c r="A42" s="51" t="s">
-        <v>184</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="53"/>
-      <c r="B43" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="C43" s="19">
-        <v>2</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="33" x14ac:dyDescent="0.15">
-      <c r="A44" s="53"/>
-      <c r="B44" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="19">
-        <v>1</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="33" x14ac:dyDescent="0.15">
-      <c r="A45" s="52"/>
-      <c r="B45" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C45" s="19">
-        <v>2</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>186</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
@@ -3636,6 +3615,29 @@
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
